--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_14_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_14_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52219.87462788722</v>
+        <v>10391755.05094955</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52219.87462788722</v>
+        <v>10391755.05094955</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112582300.450704</v>
+        <v>45778868.36023657</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9459.301479774385</v>
+        <v>1045768.100575736</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18072.44165579634</v>
+        <v>1958816.454816867</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26685.58183181828</v>
+        <v>2871864.809057999</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35640.90645954293</v>
+        <v>3800136.54269307</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44519.73169332817</v>
+        <v>4713184.896934202</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53398.55692711342</v>
+        <v>5626233.251175333</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>62277.38216089865</v>
+        <v>6539281.605416461</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>71156.20739468388</v>
+        <v>7452329.959657588</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>80035.03262846914</v>
+        <v>8365378.313898716</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88913.85786225455</v>
+        <v>9278426.668139853</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>97792.68309603972</v>
+        <v>10191475.02238098</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>106354.178484795</v>
+        <v>11089299.99722818</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>114992.1732674897</v>
+        <v>12002348.35146931</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>123630.1680501844</v>
+        <v>12915396.70571045</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>132268.1628328791</v>
+        <v>13828445.05995159</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>350</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>350</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>138</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
